--- a/Documentation/Bill of materials.xlsx
+++ b/Documentation/Bill of materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin.Lorenzen\Desktop\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin.Lorenzen\Documents\GitHub\capstone-schwarz\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>GPS Jammer Detector</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Ed</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Price (ea)</t>
   </si>
   <si>
@@ -81,6 +78,12 @@
   </si>
   <si>
     <t>Remaining</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>2015/May/19</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -570,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -597,22 +600,24 @@
         <v>49.66</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -625,10 +630,10 @@
         <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -737,7 +742,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(G3:G13)</f>
@@ -753,7 +758,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
@@ -768,7 +773,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3">
         <f>G15-G14</f>
